--- a/TASK 01.xlsx
+++ b/TASK 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhinav\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233263B3-C73F-401C-9534-37008F1D3AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97ED955D-E73A-4D3C-94F8-B9C58C442B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C98F361F-A11C-49C7-A411-88DC1AE5CF12}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">       FEMALE</t>
   </si>
   <si>
-    <t xml:space="preserve">       OTHER</t>
+    <t>NON-BINARY</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
                   <c:v>       FEMALE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>       OTHER</c:v>
+                  <c:v>NON-BINARY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1399,7 +1399,7 @@
   <dimension ref="B4:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
